--- a/QA Test Senario.xlsx
+++ b/QA Test Senario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\learn-github\learn-github\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="87">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Verify listing all departments, including department hierarchy (parent-child relationships).</t>
   </si>
   <si>
-    <t>Verify deleting a department with no associated users.</t>
-  </si>
-  <si>
     <t>TS_017</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
   </si>
   <si>
     <t>TS_040</t>
-  </si>
-  <si>
-    <t>TS_041</t>
   </si>
   <si>
     <t>Verify mandatory field checks when adding a new role</t>
@@ -651,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +708,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -725,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -747,7 +741,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -769,7 +763,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -780,7 +774,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -802,7 +796,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -824,7 +818,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -835,7 +829,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -857,34 +851,34 @@
         <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -895,7 +889,7 @@
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -906,40 +900,40 @@
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
@@ -950,7 +944,7 @@
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>21</v>
@@ -961,29 +955,29 @@
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>21</v>
@@ -994,7 +988,7 @@
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>21</v>
@@ -1005,18 +999,18 @@
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>21</v>
@@ -1027,18 +1021,18 @@
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>21</v>
@@ -1049,18 +1043,18 @@
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -1071,7 +1065,7 @@
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -1082,58 +1076,52 @@
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="A42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
